--- a/엑대파 도서작업/고객만족 데이터_보고.xlsx
+++ b/엑대파 도서작업/고객만족 데이터_보고.xlsx
@@ -915,6 +915,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -1059,6 +1066,10 @@
           <t>제품만족도</t>
         </is>
       </c>
+      <c r="B10" s="2">
+        <f>Sheet1!B15</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1066,6 +1077,10 @@
           <t>재구매 의사</t>
         </is>
       </c>
+      <c r="B11" s="2">
+        <f>Sheet1!C15</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1073,6 +1088,10 @@
           <t>추천의향</t>
         </is>
       </c>
+      <c r="B12" s="2">
+        <f>Sheet1!D15</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1080,12 +1099,20 @@
           <t>방문횟수</t>
         </is>
       </c>
+      <c r="B13">
+        <f>Sheet1!E15</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
           <t>클레임 횟수</t>
         </is>
+      </c>
+      <c r="B14">
+        <f>Sheet1!F15</f>
+        <v/>
       </c>
     </row>
   </sheetData>
